--- a/Lib_Repo_Excel/FileExcel_DPLK/DPLKINV023-001 Until DPLKINV023-003 - Setup Custodian Investasi - Approve Data.xlsx
+++ b/Lib_Repo_Excel/FileExcel_DPLK/DPLKINV023-001 Until DPLKINV023-003 - Setup Custodian Investasi - Approve Data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1427\Documents\BNI\DPLK\Lib_Repo_Excel\FileExcel_DPLK\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E849C75-2ED1-4964-9F95-0B73458EEDD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A91033F3-2E3C-43E4-9C8F-346E02D39610}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -784,8 +784,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA6C01D8-A243-4074-80A9-65DC8902E8C8}">
   <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -854,7 +854,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" ht="135" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>

--- a/Lib_Repo_Excel/FileExcel_DPLK/DPLKINV023-001 Until DPLKINV023-003 - Setup Custodian Investasi - Approve Data.xlsx
+++ b/Lib_Repo_Excel/FileExcel_DPLK/DPLKINV023-001 Until DPLKINV023-003 - Setup Custodian Investasi - Approve Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1427\Documents\BNI\DPLK\Lib_Repo_Excel\FileExcel_DPLK\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A91033F3-2E3C-43E4-9C8F-346E02D39610}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59046A79-B88B-4F76-9D57-56F220DF6B9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DPLKINV023-001" sheetId="2" r:id="rId1"/>
@@ -66,9 +66,6 @@
     <t>Setup Custodian</t>
   </si>
   <si>
-    <t>QAS</t>
-  </si>
-  <si>
     <t>PREPARATION</t>
   </si>
   <si>
@@ -76,93 +73,96 @@
   </si>
   <si>
     <t>bni1234</t>
+  </si>
+  <si>
+    <t>Verifikasi dapat dilakukan dengan baik</t>
+  </si>
+  <si>
+    <t>Verifikasi - Setuju Setup Custodian</t>
+  </si>
+  <si>
+    <t>DPLKINV023-001</t>
+  </si>
+  <si>
+    <t>1 : Setuju</t>
+  </si>
+  <si>
+    <t>DATA APPROVAL</t>
+  </si>
+  <si>
+    <t>STATUS_VERIFIKASI</t>
+  </si>
+  <si>
+    <t>KETERANGAN_VERIFIKASI</t>
+  </si>
+  <si>
+    <t>DPLKINV023-002</t>
+  </si>
+  <si>
+    <t>Verifikasi - Batalkan Setup Custodian</t>
+  </si>
+  <si>
+    <t>Batal Verifikasi dapat dilakukan dengan baik</t>
+  </si>
+  <si>
+    <t>2 : Batalkan Verifikasi</t>
+  </si>
+  <si>
+    <t>DATA AKAN DIHAPUS</t>
+  </si>
+  <si>
+    <t>DPLKINV023-003</t>
+  </si>
+  <si>
+    <t>Verifikasi - Kembalikan ke Register Setup Custodian</t>
+  </si>
+  <si>
+    <t>Data berhasil dikembalikan ke Register</t>
+  </si>
+  <si>
+    <t>0 : Kembalikan ke Register</t>
+  </si>
+  <si>
+    <t>DATA AKAN DIKEMBALIKAN UNTUK DIEDIT</t>
+  </si>
+  <si>
+    <t>EXPLAIN</t>
+  </si>
+  <si>
+    <t>Diverifikasi</t>
+  </si>
+  <si>
+    <t>Dibatalkan Verifikasi</t>
+  </si>
+  <si>
+    <t>Dikembalikan Ke Register</t>
+  </si>
+  <si>
+    <t>QAST</t>
   </si>
   <si>
     <t>Username : 32070;
 Password : bni1234;
 Role : 18/19 - Pimpinan Kelompok Investasi;
-Kode Custody : QAS;
-Status Verifikasi : 1 : Setuju;
-Keterangan Verifikasi : DATA APPROVAL</t>
-  </si>
-  <si>
-    <t>Verifikasi dapat dilakukan dengan baik</t>
-  </si>
-  <si>
-    <t>Verifikasi - Setuju Setup Custodian</t>
-  </si>
-  <si>
-    <t>DPLKINV023-001</t>
-  </si>
-  <si>
-    <t>1 : Setuju</t>
-  </si>
-  <si>
-    <t>DATA APPROVAL</t>
-  </si>
-  <si>
-    <t>STATUS_VERIFIKASI</t>
-  </si>
-  <si>
-    <t>KETERANGAN_VERIFIKASI</t>
-  </si>
-  <si>
-    <t>DPLKINV023-002</t>
-  </si>
-  <si>
-    <t>Verifikasi - Batalkan Setup Custodian</t>
-  </si>
-  <si>
-    <t>Batal Verifikasi dapat dilakukan dengan baik</t>
+Kode Custody : QAST;
+Status Verifikasi : 2 : Batalkan Verifikasi;
+Keterangan Verifikasi : DATA AKAN DIHAPUS</t>
   </si>
   <si>
     <t>Username : 32070;
 Password : bni1234;
 Role : 18/19 - Pimpinan Kelompok Investasi;
-Kode Custody : QAS;
-Status Verifikasi : 2 : Batalkan Verifikasi;
-Keterangan Verifikasi : DATA AKAN DIHAPUS</t>
-  </si>
-  <si>
-    <t>2 : Batalkan Verifikasi</t>
-  </si>
-  <si>
-    <t>DATA AKAN DIHAPUS</t>
-  </si>
-  <si>
-    <t>DPLKINV023-003</t>
+Kode Custody : QAST;
+Status Verifikasi : 1 : Setuju;
+Keterangan Verifikasi : DATA APPROVAL</t>
   </si>
   <si>
     <t>Username : 32070;
 Password : bni1234;
 Role : 18/19 - Pimpinan Kelompok Investasi;
-Kode Custody : QAS;
+Kode Custody : QAST;
 Status Verifikasi : 0 : Kembalikan ke Register;
 Keterangan Verifikasi : DATA AKAN DIKEMBALIKAN UNTUK DIEDIT</t>
-  </si>
-  <si>
-    <t>Verifikasi - Kembalikan ke Register Setup Custodian</t>
-  </si>
-  <si>
-    <t>Data berhasil dikembalikan ke Register</t>
-  </si>
-  <si>
-    <t>0 : Kembalikan ke Register</t>
-  </si>
-  <si>
-    <t>DATA AKAN DIKEMBALIKAN UNTUK DIEDIT</t>
-  </si>
-  <si>
-    <t>EXPLAIN</t>
-  </si>
-  <si>
-    <t>Diverifikasi</t>
-  </si>
-  <si>
-    <t>Dibatalkan Verifikasi</t>
-  </si>
-  <si>
-    <t>Dikembalikan Ke Register</t>
   </si>
 </sst>
 </file>
@@ -567,8 +567,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z7"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -620,7 +620,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>7</v>
@@ -638,16 +638,16 @@
         <v>1</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="P1" s="4"/>
       <c r="Q1" s="4"/>
@@ -666,25 +666,25 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="G2" s="4">
         <v>32070</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>11</v>
@@ -696,16 +696,16 @@
         <v>13</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="N2" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="O2" s="6" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="P2" s="7"/>
       <c r="Q2" s="7"/>
@@ -784,8 +784,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA6C01D8-A243-4074-80A9-65DC8902E8C8}">
   <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -824,7 +824,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>7</v>
@@ -842,16 +842,16 @@
         <v>1</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="135" x14ac:dyDescent="0.25">
@@ -859,25 +859,25 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="G2" s="4">
         <v>32070</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>11</v>
@@ -889,16 +889,16 @@
         <v>13</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="O2" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -910,8 +910,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4CBE47D-073A-4FE6-B63C-103B7090C3F1}">
   <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -950,7 +950,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>7</v>
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="150" x14ac:dyDescent="0.25">
@@ -985,25 +985,25 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="G2" s="4">
         <v>32070</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>11</v>
@@ -1015,16 +1015,16 @@
         <v>13</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="N2" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="O2" s="7" t="s">
         <v>37</v>
-      </c>
-      <c r="O2" s="7" t="s">
-        <v>41</v>
       </c>
     </row>
   </sheetData>
